--- a/图床工作目录.xlsx
+++ b/图床工作目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18455" windowHeight="9300"/>
+    <workbookView windowWidth="24228" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>工作目录</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>java</t>
+  </si>
+  <si>
+    <t>SSM</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.2222222222222" style="1" customWidth="1"/>
   </cols>
@@ -1068,6 +1071,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
